--- a/Meta_count.xlsx
+++ b/Meta_count.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rh2740/Documents/CPTAC-UCEC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F192E48-7A79-9A43-99AD-F88026CB69CA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4D287C7-316F-2E4F-9337-F7C4C2AAAE72}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37200" yWindow="10220" windowWidth="27640" windowHeight="16940" xr2:uid="{B82023DA-9285-1847-BE87-F3B84B0DA605}"/>
+    <workbookView xWindow="28860" yWindow="6080" windowWidth="27640" windowHeight="16940" xr2:uid="{B82023DA-9285-1847-BE87-F3B84B0DA605}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="40">
   <si>
     <t>TCGA</t>
   </si>
@@ -115,6 +115,36 @@
   </si>
   <si>
     <t>MSS</t>
+  </si>
+  <si>
+    <t>ARID1A</t>
+  </si>
+  <si>
+    <t>ARID5B</t>
+  </si>
+  <si>
+    <t>CTCF</t>
+  </si>
+  <si>
+    <t>EGFR</t>
+  </si>
+  <si>
+    <t>ERBB2</t>
+  </si>
+  <si>
+    <t>FBXW7</t>
+  </si>
+  <si>
+    <t>FGFR2</t>
+  </si>
+  <si>
+    <t>KRAS</t>
+  </si>
+  <si>
+    <t>MLH1</t>
+  </si>
+  <si>
+    <t>RPL22</t>
   </si>
 </sst>
 </file>
@@ -466,10 +496,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EE95B6D-4671-094C-A36A-853CFC7685B8}">
-  <dimension ref="A1:Q23"/>
+  <dimension ref="A1:AA23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -480,7 +510,7 @@
     <col min="6" max="6" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>3</v>
       </c>
@@ -529,8 +559,38 @@
       <c r="Q1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T1" t="s">
+        <v>32</v>
+      </c>
+      <c r="U1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W1" t="s">
+        <v>35</v>
+      </c>
+      <c r="X1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -582,8 +642,38 @@
       <c r="Q2">
         <v>119</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R2">
+        <v>205</v>
+      </c>
+      <c r="S2">
+        <v>93</v>
+      </c>
+      <c r="T2">
+        <v>119</v>
+      </c>
+      <c r="U2">
+        <v>50</v>
+      </c>
+      <c r="V2">
+        <v>74</v>
+      </c>
+      <c r="W2">
+        <v>94</v>
+      </c>
+      <c r="X2">
+        <v>87</v>
+      </c>
+      <c r="Y2">
+        <v>102</v>
+      </c>
+      <c r="Z2">
+        <v>35</v>
+      </c>
+      <c r="AA2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -635,8 +725,38 @@
       <c r="Q3">
         <v>98</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R3">
+        <v>98</v>
+      </c>
+      <c r="S3">
+        <v>98</v>
+      </c>
+      <c r="T3">
+        <v>98</v>
+      </c>
+      <c r="U3">
+        <v>98</v>
+      </c>
+      <c r="V3">
+        <v>98</v>
+      </c>
+      <c r="W3">
+        <v>98</v>
+      </c>
+      <c r="X3">
+        <v>98</v>
+      </c>
+      <c r="Y3">
+        <v>98</v>
+      </c>
+      <c r="Z3">
+        <v>98</v>
+      </c>
+      <c r="AA3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -660,7 +780,7 @@
         <v>194</v>
       </c>
       <c r="H4">
-        <f t="shared" ref="H4:Q4" si="0">H2+H3</f>
+        <f t="shared" ref="H4:AA4" si="0">H2+H3</f>
         <v>177</v>
       </c>
       <c r="I4">
@@ -699,8 +819,48 @@
         <f t="shared" si="0"/>
         <v>217</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R4">
+        <f t="shared" si="0"/>
+        <v>303</v>
+      </c>
+      <c r="S4">
+        <f t="shared" si="0"/>
+        <v>191</v>
+      </c>
+      <c r="T4">
+        <f t="shared" si="0"/>
+        <v>217</v>
+      </c>
+      <c r="U4">
+        <f t="shared" si="0"/>
+        <v>148</v>
+      </c>
+      <c r="V4">
+        <f t="shared" si="0"/>
+        <v>172</v>
+      </c>
+      <c r="W4">
+        <f t="shared" si="0"/>
+        <v>192</v>
+      </c>
+      <c r="X4">
+        <f t="shared" si="0"/>
+        <v>185</v>
+      </c>
+      <c r="Y4">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="Z4">
+        <f t="shared" si="0"/>
+        <v>133</v>
+      </c>
+      <c r="AA4">
+        <f t="shared" si="0"/>
+        <v>173</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>9</v>
       </c>
@@ -734,8 +894,38 @@
       <c r="L6" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="M6" t="s">
+        <v>30</v>
+      </c>
+      <c r="N6" t="s">
+        <v>31</v>
+      </c>
+      <c r="O6" t="s">
+        <v>32</v>
+      </c>
+      <c r="P6" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>34</v>
+      </c>
+      <c r="R6" t="s">
+        <v>35</v>
+      </c>
+      <c r="S6" t="s">
+        <v>36</v>
+      </c>
+      <c r="T6" t="s">
+        <v>37</v>
+      </c>
+      <c r="U6" t="s">
+        <v>38</v>
+      </c>
+      <c r="V6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -772,8 +962,38 @@
       <c r="L7">
         <v>139</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="M7">
+        <v>217</v>
+      </c>
+      <c r="N7">
+        <v>89</v>
+      </c>
+      <c r="O7">
+        <v>132</v>
+      </c>
+      <c r="P7">
+        <v>41</v>
+      </c>
+      <c r="Q7">
+        <v>32</v>
+      </c>
+      <c r="R7">
+        <v>102</v>
+      </c>
+      <c r="S7">
+        <v>81</v>
+      </c>
+      <c r="T7">
+        <v>200</v>
+      </c>
+      <c r="U7">
+        <v>29</v>
+      </c>
+      <c r="V7">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -810,8 +1030,38 @@
       <c r="L8">
         <v>78</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="M8">
+        <v>86</v>
+      </c>
+      <c r="N8">
+        <v>102</v>
+      </c>
+      <c r="O8">
+        <v>85</v>
+      </c>
+      <c r="P8">
+        <v>107</v>
+      </c>
+      <c r="Q8">
+        <v>140</v>
+      </c>
+      <c r="R8">
+        <v>90</v>
+      </c>
+      <c r="S8">
+        <v>104</v>
+      </c>
+      <c r="T8">
+        <v>72</v>
+      </c>
+      <c r="U8">
+        <v>104</v>
+      </c>
+      <c r="V8">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>22</v>
       </c>
@@ -825,7 +1075,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -842,7 +1092,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -859,7 +1109,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -876,7 +1126,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>22</v>
       </c>
@@ -887,7 +1137,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>0</v>
       </c>

--- a/Meta_count.xlsx
+++ b/Meta_count.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10909"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rh2740/Documents/CPTAC-UCEC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4D287C7-316F-2E4F-9337-F7C4C2AAAE72}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B54B76B6-AE4F-A54C-84D5-707D451E67CA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28860" yWindow="6080" windowWidth="27640" windowHeight="16940" xr2:uid="{B82023DA-9285-1847-BE87-F3B84B0DA605}"/>
+    <workbookView xWindow="5140" yWindow="5000" windowWidth="27640" windowHeight="16940" activeTab="2" xr2:uid="{B82023DA-9285-1847-BE87-F3B84B0DA605}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="64">
   <si>
     <t>TCGA</t>
   </si>
@@ -145,6 +147,78 @@
   </si>
   <si>
     <t>RPL22</t>
+  </si>
+  <si>
+    <t>Images Summary</t>
+  </si>
+  <si>
+    <t>Endometroid (CN Low)</t>
+  </si>
+  <si>
+    <t>CPTAC Endometroid (CN Low) missing 1 image: C3N-00734-03; S078</t>
+  </si>
+  <si>
+    <t>Serous-like (CN High)</t>
+  </si>
+  <si>
+    <t>Sum</t>
+  </si>
+  <si>
+    <t>inlist</t>
+  </si>
+  <si>
+    <t>outlist</t>
+  </si>
+  <si>
+    <t>Subtype Patients</t>
+  </si>
+  <si>
+    <t>Patients total: 621</t>
+  </si>
+  <si>
+    <t>Mutation Patients</t>
+  </si>
+  <si>
+    <t>Histology Patients</t>
+  </si>
+  <si>
+    <t>Clear</t>
+  </si>
+  <si>
+    <t>subtype_Endometrioid</t>
+  </si>
+  <si>
+    <t>subtype_MSI</t>
+  </si>
+  <si>
+    <t>subtype_POLE</t>
+  </si>
+  <si>
+    <t>subtype_Serous.like</t>
+  </si>
+  <si>
+    <t>histology_Endometrioid</t>
+  </si>
+  <si>
+    <t>histology_Mixed</t>
+  </si>
+  <si>
+    <t>histology_Serous</t>
+  </si>
+  <si>
+    <t>MSIst_MSI.H</t>
+  </si>
+  <si>
+    <t>MSIst_MSS</t>
+  </si>
+  <si>
+    <t>POS</t>
+  </si>
+  <si>
+    <t>NEG</t>
+  </si>
+  <si>
+    <t>POS.Rate</t>
   </si>
 </sst>
 </file>
@@ -180,8 +254,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -498,7 +575,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EE95B6D-4671-094C-A36A-853CFC7685B8}">
   <dimension ref="A1:AA23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+    <sheetView topLeftCell="H1" workbookViewId="0">
       <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
@@ -1235,4 +1312,1107 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9ADA781B-A515-5F4E-832C-12EAB3F2E306}">
+  <dimension ref="A1:N34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:N37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2">
+        <v>19</v>
+      </c>
+      <c r="C2">
+        <v>7</v>
+      </c>
+      <c r="D2">
+        <f>SUM(B2:C2)</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>71</v>
+      </c>
+      <c r="C3">
+        <v>28</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D5" si="0">SUM(B3:C3)</f>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4">
+        <v>174</v>
+      </c>
+      <c r="C4">
+        <v>49</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>223</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5">
+        <v>63</v>
+      </c>
+      <c r="C5">
+        <v>23</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6">
+        <f>SUM(B2:B5)</f>
+        <v>327</v>
+      </c>
+      <c r="C6">
+        <f>SUM(C2:C5)</f>
+        <v>107</v>
+      </c>
+      <c r="D6">
+        <f>SUM(B6:C6)</f>
+        <v>434</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7">
+        <v>327</v>
+      </c>
+      <c r="C7">
+        <v>108</v>
+      </c>
+      <c r="D7">
+        <f>SUM(B7:C7)</f>
+        <v>435</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8">
+        <v>240</v>
+      </c>
+      <c r="C8">
+        <v>33</v>
+      </c>
+      <c r="D8">
+        <f>SUM(B8:C8)</f>
+        <v>273</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13">
+        <v>17</v>
+      </c>
+      <c r="C13">
+        <v>7</v>
+      </c>
+      <c r="D13">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14">
+        <v>63</v>
+      </c>
+      <c r="C14">
+        <v>25</v>
+      </c>
+      <c r="D14">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15">
+        <v>151</v>
+      </c>
+      <c r="C15">
+        <v>45</v>
+      </c>
+      <c r="D15">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16">
+        <v>57</v>
+      </c>
+      <c r="C16">
+        <v>21</v>
+      </c>
+      <c r="D16">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17">
+        <f t="shared" ref="B17:C17" si="1">SUM(B13:B16)</f>
+        <v>288</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="1"/>
+        <v>98</v>
+      </c>
+      <c r="D17">
+        <f>SUM(D13:D16)</f>
+        <v>386</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G19" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H19" s="1"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22">
+        <v>110</v>
+      </c>
+      <c r="C22">
+        <v>8</v>
+      </c>
+      <c r="D22">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23">
+        <v>214</v>
+      </c>
+      <c r="C23">
+        <v>22</v>
+      </c>
+      <c r="D23">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24">
+        <v>153</v>
+      </c>
+      <c r="C24">
+        <v>23</v>
+      </c>
+      <c r="D24">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25">
+        <v>271</v>
+      </c>
+      <c r="C25">
+        <v>48</v>
+      </c>
+      <c r="D25">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26">
+        <v>216</v>
+      </c>
+      <c r="C26">
+        <v>38</v>
+      </c>
+      <c r="D26">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>18</v>
+      </c>
+      <c r="B27">
+        <v>352</v>
+      </c>
+      <c r="C27">
+        <v>76</v>
+      </c>
+      <c r="D27">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>50</v>
+      </c>
+      <c r="B29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1</v>
+      </c>
+      <c r="D29" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>22</v>
+      </c>
+      <c r="B30">
+        <v>294</v>
+      </c>
+      <c r="C30">
+        <v>85</v>
+      </c>
+      <c r="D30">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31">
+        <v>52</v>
+      </c>
+      <c r="C31">
+        <v>12</v>
+      </c>
+      <c r="D31">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>26</v>
+      </c>
+      <c r="B32">
+        <v>13</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>51</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>44</v>
+      </c>
+      <c r="B34">
+        <v>359</v>
+      </c>
+      <c r="C34">
+        <v>98</v>
+      </c>
+      <c r="D34">
+        <v>457</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="F4:N4"/>
+    <mergeCell ref="G19:H19"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAE0C3BC-A577-7F4E-AD89-EF1629DF3086}">
+  <dimension ref="A1:AE7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>19</v>
+      </c>
+      <c r="W1" t="s">
+        <v>52</v>
+      </c>
+      <c r="X1" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2">
+        <v>217</v>
+      </c>
+      <c r="C2">
+        <v>89</v>
+      </c>
+      <c r="D2">
+        <v>85</v>
+      </c>
+      <c r="E2">
+        <v>69</v>
+      </c>
+      <c r="F2">
+        <v>132</v>
+      </c>
+      <c r="G2">
+        <v>148</v>
+      </c>
+      <c r="H2">
+        <v>41</v>
+      </c>
+      <c r="I2">
+        <v>32</v>
+      </c>
+      <c r="J2">
+        <v>102</v>
+      </c>
+      <c r="K2">
+        <v>81</v>
+      </c>
+      <c r="L2">
+        <v>90</v>
+      </c>
+      <c r="M2">
+        <v>128</v>
+      </c>
+      <c r="N2">
+        <v>29</v>
+      </c>
+      <c r="O2">
+        <v>69</v>
+      </c>
+      <c r="P2">
+        <v>241</v>
+      </c>
+      <c r="Q2">
+        <v>195</v>
+      </c>
+      <c r="R2">
+        <v>33</v>
+      </c>
+      <c r="S2">
+        <v>67</v>
+      </c>
+      <c r="T2">
+        <v>334</v>
+      </c>
+      <c r="U2">
+        <v>58</v>
+      </c>
+      <c r="V2">
+        <v>139</v>
+      </c>
+      <c r="W2">
+        <v>135</v>
+      </c>
+      <c r="X2">
+        <v>90</v>
+      </c>
+      <c r="Y2">
+        <v>24</v>
+      </c>
+      <c r="Z2">
+        <v>81</v>
+      </c>
+      <c r="AA2">
+        <v>405</v>
+      </c>
+      <c r="AB2">
+        <v>13</v>
+      </c>
+      <c r="AC2">
+        <v>78</v>
+      </c>
+      <c r="AD2">
+        <v>152</v>
+      </c>
+      <c r="AE2">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3">
+        <v>86</v>
+      </c>
+      <c r="C3">
+        <v>102</v>
+      </c>
+      <c r="D3">
+        <v>109</v>
+      </c>
+      <c r="E3">
+        <v>108</v>
+      </c>
+      <c r="F3">
+        <v>85</v>
+      </c>
+      <c r="G3">
+        <v>81</v>
+      </c>
+      <c r="H3">
+        <v>107</v>
+      </c>
+      <c r="I3">
+        <v>140</v>
+      </c>
+      <c r="J3">
+        <v>90</v>
+      </c>
+      <c r="K3">
+        <v>104</v>
+      </c>
+      <c r="L3">
+        <v>93</v>
+      </c>
+      <c r="M3">
+        <v>72</v>
+      </c>
+      <c r="N3">
+        <v>104</v>
+      </c>
+      <c r="O3">
+        <v>120</v>
+      </c>
+      <c r="P3">
+        <v>75</v>
+      </c>
+      <c r="Q3">
+        <v>72</v>
+      </c>
+      <c r="R3">
+        <v>117</v>
+      </c>
+      <c r="S3">
+        <v>99</v>
+      </c>
+      <c r="T3">
+        <v>45</v>
+      </c>
+      <c r="U3">
+        <v>115</v>
+      </c>
+      <c r="V3">
+        <v>78</v>
+      </c>
+      <c r="W3">
+        <v>195</v>
+      </c>
+      <c r="X3">
+        <v>240</v>
+      </c>
+      <c r="Y3">
+        <v>306</v>
+      </c>
+      <c r="Z3">
+        <v>249</v>
+      </c>
+      <c r="AA3">
+        <v>66</v>
+      </c>
+      <c r="AB3">
+        <v>458</v>
+      </c>
+      <c r="AC3">
+        <v>393</v>
+      </c>
+      <c r="AD3">
+        <v>316</v>
+      </c>
+      <c r="AE3">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4">
+        <v>0.71599999999999997</v>
+      </c>
+      <c r="C4">
+        <v>0.46600000000000003</v>
+      </c>
+      <c r="D4">
+        <v>0.438</v>
+      </c>
+      <c r="E4">
+        <v>0.39</v>
+      </c>
+      <c r="F4">
+        <v>0.60799999999999998</v>
+      </c>
+      <c r="G4">
+        <v>0.64600000000000002</v>
+      </c>
+      <c r="H4">
+        <v>0.27700000000000002</v>
+      </c>
+      <c r="I4">
+        <v>0.186</v>
+      </c>
+      <c r="J4">
+        <v>0.53100000000000003</v>
+      </c>
+      <c r="K4">
+        <v>0.438</v>
+      </c>
+      <c r="L4">
+        <v>0.49199999999999999</v>
+      </c>
+      <c r="M4">
+        <v>0.64</v>
+      </c>
+      <c r="N4">
+        <v>0.218</v>
+      </c>
+      <c r="O4">
+        <v>0.36499999999999999</v>
+      </c>
+      <c r="P4">
+        <v>0.76300000000000001</v>
+      </c>
+      <c r="Q4">
+        <v>0.73</v>
+      </c>
+      <c r="R4">
+        <v>0.22</v>
+      </c>
+      <c r="S4">
+        <v>0.40400000000000003</v>
+      </c>
+      <c r="T4">
+        <v>0.88100000000000001</v>
+      </c>
+      <c r="U4">
+        <v>0.33500000000000002</v>
+      </c>
+      <c r="V4">
+        <v>0.64100000000000001</v>
+      </c>
+      <c r="W4">
+        <v>0.40899999999999997</v>
+      </c>
+      <c r="X4">
+        <v>0.27300000000000002</v>
+      </c>
+      <c r="Y4">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="Z4">
+        <v>0.245</v>
+      </c>
+      <c r="AA4">
+        <v>0.86</v>
+      </c>
+      <c r="AB4">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="AC4">
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="AD4">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="AE4">
+        <v>0.67500000000000004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>205</v>
+      </c>
+      <c r="C5">
+        <v>93</v>
+      </c>
+      <c r="D5">
+        <v>96</v>
+      </c>
+      <c r="E5">
+        <v>79</v>
+      </c>
+      <c r="F5">
+        <v>119</v>
+      </c>
+      <c r="G5">
+        <v>131</v>
+      </c>
+      <c r="H5">
+        <v>50</v>
+      </c>
+      <c r="I5">
+        <v>74</v>
+      </c>
+      <c r="J5">
+        <v>94</v>
+      </c>
+      <c r="K5">
+        <v>87</v>
+      </c>
+      <c r="L5">
+        <v>85</v>
+      </c>
+      <c r="M5">
+        <v>102</v>
+      </c>
+      <c r="N5">
+        <v>35</v>
+      </c>
+      <c r="O5">
+        <v>91</v>
+      </c>
+      <c r="P5">
+        <v>218</v>
+      </c>
+      <c r="Q5">
+        <v>169</v>
+      </c>
+      <c r="R5">
+        <v>52</v>
+      </c>
+      <c r="S5">
+        <v>68</v>
+      </c>
+      <c r="T5">
+        <v>281</v>
+      </c>
+      <c r="U5">
+        <v>75</v>
+      </c>
+      <c r="V5">
+        <v>119</v>
+      </c>
+      <c r="W5">
+        <v>232</v>
+      </c>
+      <c r="X5">
+        <v>232</v>
+      </c>
+      <c r="Y5">
+        <v>232</v>
+      </c>
+      <c r="Z5">
+        <v>232</v>
+      </c>
+      <c r="AA5">
+        <v>373</v>
+      </c>
+      <c r="AB5">
+        <v>373</v>
+      </c>
+      <c r="AC5">
+        <v>373</v>
+      </c>
+      <c r="AD5">
+        <v>370</v>
+      </c>
+      <c r="AE5">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>98</v>
+      </c>
+      <c r="C6">
+        <v>98</v>
+      </c>
+      <c r="D6">
+        <v>98</v>
+      </c>
+      <c r="E6">
+        <v>98</v>
+      </c>
+      <c r="F6">
+        <v>98</v>
+      </c>
+      <c r="G6">
+        <v>98</v>
+      </c>
+      <c r="H6">
+        <v>98</v>
+      </c>
+      <c r="I6">
+        <v>98</v>
+      </c>
+      <c r="J6">
+        <v>98</v>
+      </c>
+      <c r="K6">
+        <v>98</v>
+      </c>
+      <c r="L6">
+        <v>98</v>
+      </c>
+      <c r="M6">
+        <v>98</v>
+      </c>
+      <c r="N6">
+        <v>98</v>
+      </c>
+      <c r="O6">
+        <v>98</v>
+      </c>
+      <c r="P6">
+        <v>98</v>
+      </c>
+      <c r="Q6">
+        <v>98</v>
+      </c>
+      <c r="R6">
+        <v>98</v>
+      </c>
+      <c r="S6">
+        <v>98</v>
+      </c>
+      <c r="T6">
+        <v>98</v>
+      </c>
+      <c r="U6">
+        <v>98</v>
+      </c>
+      <c r="V6">
+        <v>98</v>
+      </c>
+      <c r="W6">
+        <v>98</v>
+      </c>
+      <c r="X6">
+        <v>98</v>
+      </c>
+      <c r="Y6">
+        <v>98</v>
+      </c>
+      <c r="Z6">
+        <v>98</v>
+      </c>
+      <c r="AA6">
+        <v>98</v>
+      </c>
+      <c r="AB6">
+        <v>98</v>
+      </c>
+      <c r="AC6">
+        <v>98</v>
+      </c>
+      <c r="AD6">
+        <v>98</v>
+      </c>
+      <c r="AE6">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>303</v>
+      </c>
+      <c r="C7">
+        <v>191</v>
+      </c>
+      <c r="D7">
+        <v>194</v>
+      </c>
+      <c r="E7">
+        <v>177</v>
+      </c>
+      <c r="F7">
+        <v>217</v>
+      </c>
+      <c r="G7">
+        <v>229</v>
+      </c>
+      <c r="H7">
+        <v>148</v>
+      </c>
+      <c r="I7">
+        <v>172</v>
+      </c>
+      <c r="J7">
+        <v>192</v>
+      </c>
+      <c r="K7">
+        <v>185</v>
+      </c>
+      <c r="L7">
+        <v>183</v>
+      </c>
+      <c r="M7">
+        <v>200</v>
+      </c>
+      <c r="N7">
+        <v>133</v>
+      </c>
+      <c r="O7">
+        <v>189</v>
+      </c>
+      <c r="P7">
+        <v>316</v>
+      </c>
+      <c r="Q7">
+        <v>267</v>
+      </c>
+      <c r="R7">
+        <v>150</v>
+      </c>
+      <c r="S7">
+        <v>166</v>
+      </c>
+      <c r="T7">
+        <v>379</v>
+      </c>
+      <c r="U7">
+        <v>173</v>
+      </c>
+      <c r="V7">
+        <v>217</v>
+      </c>
+      <c r="W7">
+        <v>330</v>
+      </c>
+      <c r="X7">
+        <v>330</v>
+      </c>
+      <c r="Y7">
+        <v>330</v>
+      </c>
+      <c r="Z7">
+        <v>330</v>
+      </c>
+      <c r="AA7">
+        <v>471</v>
+      </c>
+      <c r="AB7">
+        <v>471</v>
+      </c>
+      <c r="AC7">
+        <v>471</v>
+      </c>
+      <c r="AD7">
+        <v>468</v>
+      </c>
+      <c r="AE7">
+        <v>468</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>